--- a/data/pca/factorExposure/factorExposure_2013-07-04.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-07-04.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>0.002108720814444214</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.001390396802058111</v>
+      </c>
+      <c r="C2">
+        <v>-0.03191858023689322</v>
+      </c>
+      <c r="D2">
+        <v>0.004854258418089845</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.002819719714034751</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.006214941247783749</v>
+      </c>
+      <c r="C4">
+        <v>-0.0833541356134006</v>
+      </c>
+      <c r="D4">
+        <v>0.08069377430908367</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.0003452507235118673</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01362154952624976</v>
+      </c>
+      <c r="C6">
+        <v>-0.1057362287754004</v>
+      </c>
+      <c r="D6">
+        <v>0.04067580296930643</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.001311330650188228</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.004954243128271852</v>
+      </c>
+      <c r="C7">
+        <v>-0.05166119731819467</v>
+      </c>
+      <c r="D7">
+        <v>0.03937034690398134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>-0.002896813361632167</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.006133921639560934</v>
+      </c>
+      <c r="C8">
+        <v>-0.03862709017067577</v>
+      </c>
+      <c r="D8">
+        <v>0.03717993826410888</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>0.005863548873004392</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.004179351579732911</v>
+      </c>
+      <c r="C9">
+        <v>-0.06752498168794917</v>
+      </c>
+      <c r="D9">
+        <v>0.07048200844387369</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>-0.004576932396047255</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.0060694779727887</v>
+      </c>
+      <c r="C10">
+        <v>-0.08868414115058595</v>
+      </c>
+      <c r="D10">
+        <v>-0.2171839242364493</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>0.005942699521455359</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005136302705728847</v>
+      </c>
+      <c r="C11">
+        <v>-0.07857030366420117</v>
+      </c>
+      <c r="D11">
+        <v>0.06469255994380912</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.001008427562313779</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.003946951383599952</v>
+      </c>
+      <c r="C12">
+        <v>-0.06247036214273805</v>
+      </c>
+      <c r="D12">
+        <v>0.04675029023952591</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>-0.002696233236973775</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.008418994824249234</v>
+      </c>
+      <c r="C13">
+        <v>-0.06842771532263245</v>
+      </c>
+      <c r="D13">
+        <v>0.07687238295705809</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>0.003855461148035789</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001988817292592416</v>
+      </c>
+      <c r="C14">
+        <v>-0.04732841901075486</v>
+      </c>
+      <c r="D14">
+        <v>0.01544876049212123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.003210944825269195</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.005934435739368867</v>
+      </c>
+      <c r="C15">
+        <v>-0.03732522867103916</v>
+      </c>
+      <c r="D15">
+        <v>0.04456357205138296</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.00364290171603961</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.00520154898453761</v>
+      </c>
+      <c r="C16">
+        <v>-0.06403306173387946</v>
+      </c>
+      <c r="D16">
+        <v>0.05028288238978013</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.001418308414399898</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.009372620439362881</v>
+      </c>
+      <c r="C20">
+        <v>-0.06511823440060811</v>
+      </c>
+      <c r="D20">
+        <v>0.05712485750743293</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>-0.003105695217986947</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.009665785935159632</v>
+      </c>
+      <c r="C21">
+        <v>-0.02629116486329527</v>
+      </c>
+      <c r="D21">
+        <v>0.03854593352409652</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>0.01652936622589382</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.007537118651065046</v>
+      </c>
+      <c r="C22">
+        <v>-0.08542416907308696</v>
+      </c>
+      <c r="D22">
+        <v>0.1037029832795727</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>0.0167908176375503</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.007292364788556235</v>
+      </c>
+      <c r="C23">
+        <v>-0.0880138701268698</v>
+      </c>
+      <c r="D23">
+        <v>0.1008900252718853</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>0.004552169345982897</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.004728261130937123</v>
+      </c>
+      <c r="C24">
+        <v>-0.07170262979611158</v>
+      </c>
+      <c r="D24">
+        <v>0.05963726642391546</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>0.005644053827476579</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.003079119323443713</v>
+      </c>
+      <c r="C25">
+        <v>-0.07655783860121847</v>
+      </c>
+      <c r="D25">
+        <v>0.06327531204693261</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>0.007067422547789195</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003767232070143344</v>
+      </c>
+      <c r="C26">
+        <v>-0.04350480604709817</v>
+      </c>
+      <c r="D26">
+        <v>0.01890751098413075</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>0.005426693046153589</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.0002577379502468335</v>
+      </c>
+      <c r="C28">
+        <v>-0.13753599189593</v>
+      </c>
+      <c r="D28">
+        <v>-0.3018417424194085</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>0.00163206292100588</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.003497976433118341</v>
+      </c>
+      <c r="C29">
+        <v>-0.05022731894342097</v>
+      </c>
+      <c r="D29">
+        <v>0.02125524810341702</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>0.005667497094255</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.009378163479784147</v>
+      </c>
+      <c r="C30">
+        <v>-0.1328102199200397</v>
+      </c>
+      <c r="D30">
+        <v>0.1121028860853316</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>-0.0001700620866415614</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006174309269007096</v>
+      </c>
+      <c r="C31">
+        <v>-0.04670318958265</v>
+      </c>
+      <c r="D31">
+        <v>0.03624026052936317</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0004303319477353769</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.003542126770631749</v>
+      </c>
+      <c r="C32">
+        <v>-0.04093020103266479</v>
+      </c>
+      <c r="D32">
+        <v>0.01673256045987474</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.004555734388692549</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.008071904957742166</v>
+      </c>
+      <c r="C33">
+        <v>-0.08133050766556586</v>
+      </c>
+      <c r="D33">
+        <v>0.07667321778141786</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>0.005988749769458286</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.003890844054682825</v>
+      </c>
+      <c r="C34">
+        <v>-0.05616250518880572</v>
+      </c>
+      <c r="D34">
+        <v>0.04389456662751899</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.004275031394684642</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.004937842103277422</v>
+      </c>
+      <c r="C35">
+        <v>-0.03893232485340412</v>
+      </c>
+      <c r="D35">
+        <v>0.01800389057203575</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>0.00550947609939713</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001274950461815051</v>
+      </c>
+      <c r="C36">
+        <v>-0.02727374026230689</v>
+      </c>
+      <c r="D36">
+        <v>0.0167559425160652</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>-0.002231642981464076</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009201584786932121</v>
+      </c>
+      <c r="C38">
+        <v>-0.03575042850565471</v>
+      </c>
+      <c r="D38">
+        <v>0.03054058302056495</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>0.01569675379259115</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.001143424120566255</v>
+      </c>
+      <c r="C39">
+        <v>-0.1109441750428587</v>
+      </c>
+      <c r="D39">
+        <v>0.08543970531194289</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>0.008469986815814819</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.002677593986950967</v>
+      </c>
+      <c r="C40">
+        <v>-0.08445567238081325</v>
+      </c>
+      <c r="D40">
+        <v>0.03545894732916972</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>3.267132565164744e-05</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007577044483558885</v>
+      </c>
+      <c r="C41">
+        <v>-0.04138968891281992</v>
+      </c>
+      <c r="D41">
+        <v>0.03498842755769108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>0.002099388098616182</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.002956836253520031</v>
+      </c>
+      <c r="C43">
+        <v>-0.05196156978816679</v>
+      </c>
+      <c r="D43">
+        <v>0.02753787024429928</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>0.00524625338002059</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003436517948452305</v>
+      </c>
+      <c r="C44">
+        <v>-0.1048815411348432</v>
+      </c>
+      <c r="D44">
+        <v>0.08165844830676132</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>0.002385364580320496</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002650084194728114</v>
+      </c>
+      <c r="C46">
+        <v>-0.03387011555807892</v>
+      </c>
+      <c r="D46">
+        <v>0.0344754284630954</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0.002660025584808938</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002819368573825537</v>
+      </c>
+      <c r="C47">
+        <v>-0.04068527366912852</v>
+      </c>
+      <c r="D47">
+        <v>0.02734479720537175</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>-0.003687465528749546</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006596823958864537</v>
+      </c>
+      <c r="C48">
+        <v>-0.03254368101236567</v>
+      </c>
+      <c r="D48">
+        <v>0.02249328312671493</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.01642661862080752</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01409153070523567</v>
+      </c>
+      <c r="C49">
+        <v>-0.1646892994918402</v>
+      </c>
+      <c r="D49">
+        <v>0.04366970892724847</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>0.0003274402143964006</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.004005891807013865</v>
+      </c>
+      <c r="C50">
+        <v>-0.04301776388605856</v>
+      </c>
+      <c r="D50">
+        <v>0.03828610696509636</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>-0.002614642229999294</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004127886491822469</v>
+      </c>
+      <c r="C51">
+        <v>-0.02023190471799116</v>
+      </c>
+      <c r="D51">
+        <v>0.03481185321284349</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.0001645861845076757</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.02013343249997214</v>
+      </c>
+      <c r="C53">
+        <v>-0.1626755512456534</v>
+      </c>
+      <c r="D53">
+        <v>0.05917599263208014</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.001367391985559975</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.00868798817380601</v>
+      </c>
+      <c r="C54">
+        <v>-0.05412286283901861</v>
+      </c>
+      <c r="D54">
+        <v>0.04233012903870684</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.00600484384568289</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009595626669449169</v>
+      </c>
+      <c r="C55">
+        <v>-0.1034398601086967</v>
+      </c>
+      <c r="D55">
+        <v>0.05611024802626879</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>-0.00129788300093071</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.01893511559634335</v>
+      </c>
+      <c r="C56">
+        <v>-0.1672238591846313</v>
+      </c>
+      <c r="D56">
+        <v>0.06107020708735587</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.009047270165590678</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01963380525776017</v>
+      </c>
+      <c r="C58">
+        <v>-0.09953338752346544</v>
+      </c>
+      <c r="D58">
+        <v>0.08192546463283253</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>0.009318782582008777</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.008873162044801319</v>
+      </c>
+      <c r="C59">
+        <v>-0.1774039546532136</v>
+      </c>
+      <c r="D59">
+        <v>-0.2682539544932782</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.008982438231699435</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02295755437509503</v>
+      </c>
+      <c r="C60">
+        <v>-0.2208965412703152</v>
+      </c>
+      <c r="D60">
+        <v>0.03354671644790095</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>0.01799018002261294</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.001961680595057211</v>
+      </c>
+      <c r="C61">
+        <v>-0.09314246275409251</v>
+      </c>
+      <c r="D61">
+        <v>0.06546446515295322</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>-0.1889191006830513</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1449707432318251</v>
+      </c>
+      <c r="C62">
+        <v>-0.06813647539199746</v>
+      </c>
+      <c r="D62">
+        <v>0.05337537693298041</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.003021818663397771</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006655950323733149</v>
+      </c>
+      <c r="C63">
+        <v>-0.06045146751645409</v>
+      </c>
+      <c r="D63">
+        <v>0.02104472860936926</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.006331331694173355</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01568747916913344</v>
+      </c>
+      <c r="C64">
+        <v>-0.09658496993766792</v>
+      </c>
+      <c r="D64">
+        <v>0.071417845349981</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>-0.0005131438130225334</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01731117475612347</v>
+      </c>
+      <c r="C65">
+        <v>-0.1101645778996545</v>
+      </c>
+      <c r="D65">
+        <v>0.03879832429331917</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>0.01226709568698101</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01231940789292233</v>
+      </c>
+      <c r="C66">
+        <v>-0.1472578800175877</v>
+      </c>
+      <c r="D66">
+        <v>0.124783358432933</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>-0.001784039823271947</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01516280868279167</v>
+      </c>
+      <c r="C67">
+        <v>-0.0642291097472157</v>
+      </c>
+      <c r="D67">
+        <v>0.04264039746648338</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>0.009178545174905281</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.001579073701181599</v>
+      </c>
+      <c r="C68">
+        <v>-0.1208581154778198</v>
+      </c>
+      <c r="D68">
+        <v>-0.2659132713886042</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>0.003371726163181041</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.005197122693615969</v>
+      </c>
+      <c r="C69">
+        <v>-0.04567971062446045</v>
+      </c>
+      <c r="D69">
+        <v>0.04434075431809441</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001258694698875136</v>
+      </c>
+      <c r="C70">
+        <v>-0.001598018174758265</v>
+      </c>
+      <c r="D70">
+        <v>0.001325813509202298</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>0.004388033076478875</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.006261472874392479</v>
+      </c>
+      <c r="C71">
+        <v>-0.1248605427136657</v>
+      </c>
+      <c r="D71">
+        <v>-0.2804516162086355</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.008602699492522174</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.0153345099582712</v>
+      </c>
+      <c r="C72">
+        <v>-0.1468882675238536</v>
+      </c>
+      <c r="D72">
+        <v>0.03565413681227227</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.01437124137525381</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.03105289666180872</v>
+      </c>
+      <c r="C73">
+        <v>-0.2831363152624553</v>
+      </c>
+      <c r="D73">
+        <v>0.05474638462174602</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>0.005858724393881953</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.001906900863224411</v>
+      </c>
+      <c r="C74">
+        <v>-0.1015219385313646</v>
+      </c>
+      <c r="D74">
+        <v>0.04753069547048191</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>0.006772150826248197</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01041981813780987</v>
+      </c>
+      <c r="C75">
+        <v>-0.1305066892825502</v>
+      </c>
+      <c r="D75">
+        <v>0.04631788585742611</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>-0.01047175380084571</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02115975690551206</v>
+      </c>
+      <c r="C76">
+        <v>-0.1411960006133253</v>
+      </c>
+      <c r="D76">
+        <v>0.07618119117017168</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>-0.00849116435804608</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02220894718318232</v>
+      </c>
+      <c r="C77">
+        <v>-0.1174587081552598</v>
+      </c>
+      <c r="D77">
+        <v>0.1193090231770907</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>-0.0006850798273376651</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01468271110095611</v>
+      </c>
+      <c r="C78">
+        <v>-0.08976709796776122</v>
+      </c>
+      <c r="D78">
+        <v>0.06795694703161055</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>-0.0262808648652425</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03657005673082975</v>
+      </c>
+      <c r="C79">
+        <v>-0.1523081704077636</v>
+      </c>
+      <c r="D79">
+        <v>0.04376764597860004</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>-0.003269147715804084</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01085140267188348</v>
+      </c>
+      <c r="C80">
+        <v>-0.04400451692839705</v>
+      </c>
+      <c r="D80">
+        <v>0.02867056644641894</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>8.847678720919919e-05</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.0144805612257192</v>
+      </c>
+      <c r="C81">
+        <v>-0.1181724287360354</v>
+      </c>
+      <c r="D81">
+        <v>0.06532171651914018</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>-0.006163554375490357</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.01866885177498591</v>
+      </c>
+      <c r="C82">
+        <v>-0.1382183529643533</v>
+      </c>
+      <c r="D82">
+        <v>0.05399891767396506</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.008568912457455691</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.009707373085437548</v>
+      </c>
+      <c r="C83">
+        <v>-0.0521234719326149</v>
+      </c>
+      <c r="D83">
+        <v>0.04906263032733191</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>-0.01360332523858621</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01237225560123275</v>
+      </c>
+      <c r="C84">
+        <v>-0.03139468056751928</v>
+      </c>
+      <c r="D84">
+        <v>0.001943050296840006</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>-0.01631306285516955</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02838171488728001</v>
+      </c>
+      <c r="C85">
+        <v>-0.127036640355672</v>
+      </c>
+      <c r="D85">
+        <v>0.06006394560393979</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>0.003665189603900201</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.004808110731304263</v>
+      </c>
+      <c r="C86">
+        <v>-0.04768029404073056</v>
+      </c>
+      <c r="D86">
+        <v>0.0222363056944532</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.008205571654890342</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.01011966179145234</v>
+      </c>
+      <c r="C87">
+        <v>-0.1231580650723916</v>
+      </c>
+      <c r="D87">
+        <v>0.08192948102506967</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>0.01477645012810812</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.003022287998856681</v>
+      </c>
+      <c r="C88">
+        <v>-0.07303656032627998</v>
+      </c>
+      <c r="D88">
+        <v>0.01756312935399636</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>0.01546589667109296</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.001782805928341425</v>
+      </c>
+      <c r="C89">
+        <v>-0.1753577954777856</v>
+      </c>
+      <c r="D89">
+        <v>-0.3282008650854882</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>0.002481999337877868</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.007699957947081448</v>
+      </c>
+      <c r="C90">
+        <v>-0.1576604601522726</v>
+      </c>
+      <c r="D90">
+        <v>-0.3156598202619684</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.0005941198875205581</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.009862594158999616</v>
+      </c>
+      <c r="C91">
+        <v>-0.1017320496247062</v>
+      </c>
+      <c r="D91">
+        <v>0.02317934581842756</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>0.0184347230021149</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.001066425464424676</v>
+      </c>
+      <c r="C92">
+        <v>-0.1632434846170062</v>
+      </c>
+      <c r="D92">
+        <v>-0.3146296958916139</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>0.001935241424899332</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.005181536562548575</v>
+      </c>
+      <c r="C93">
+        <v>-0.139239874097978</v>
+      </c>
+      <c r="D93">
+        <v>-0.3079960397392347</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>-0.001023377741626253</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02180228756240835</v>
+      </c>
+      <c r="C94">
+        <v>-0.154769726820693</v>
+      </c>
+      <c r="D94">
+        <v>0.03884795659774615</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.006935496606886487</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01667741465509957</v>
+      </c>
+      <c r="C95">
+        <v>-0.1202724503999461</v>
+      </c>
+      <c r="D95">
+        <v>0.06894270992251575</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.004586428061449</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03256300670574636</v>
+      </c>
+      <c r="C97">
+        <v>-0.1655921969616358</v>
+      </c>
+      <c r="D97">
+        <v>0.0512314445497031</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.0101562259175559</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03588102659808608</v>
+      </c>
+      <c r="C98">
+        <v>-0.2574513834075892</v>
+      </c>
+      <c r="D98">
+        <v>0.05179211459165849</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>-0.9792091302362422</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9825817486393988</v>
+      </c>
+      <c r="C99">
+        <v>0.1070772809173608</v>
+      </c>
+      <c r="D99">
+        <v>-0.03719602718798189</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>0.001584703512576846</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003541625187005453</v>
+      </c>
+      <c r="C101">
+        <v>-0.05031178925902959</v>
+      </c>
+      <c r="D101">
+        <v>0.02129804482500868</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
